--- a/datasheet/iCE40144-pinTQFPMigration.xlsx
+++ b/datasheet/iCE40144-pinTQFPMigration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Pinout" sheetId="1" state="visible" r:id="rId2"/>
@@ -773,7 +773,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,12 +832,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
         <bgColor rgb="FFDCE6F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8E4BC"/>
-        <bgColor rgb="FFDCE6F1"/>
       </patternFill>
     </fill>
     <fill>
@@ -925,7 +919,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -983,10 +977,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1055,7 +1045,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFDCE6F1"/>
-      <rgbColor rgb="FFD8E4BC"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1093,9 +1083,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1109,7 +1099,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="15720480"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1130,9 +1120,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1146,7 +1136,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="15720480"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1167,9 +1157,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1183,7 +1173,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9692640"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1204,9 +1194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1220,7 +1210,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="15720480"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1241,9 +1231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1257,7 +1247,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6415920"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1278,9 +1268,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1294,7 +1284,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6415920"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1315,9 +1305,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1331,7 +1321,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3855600"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1352,9 +1342,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1368,7 +1358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6415920"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1389,9 +1379,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1405,7 +1395,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5318640"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1426,9 +1416,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1442,7 +1432,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4448160" y="12618720"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1463,9 +1453,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1479,7 +1469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4448160" y="12618720"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1500,9 +1490,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1516,7 +1506,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4448160" y="7330320"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1537,9 +1527,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1553,7 +1543,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4448160" y="12618720"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1574,9 +1564,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1590,7 +1580,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4448160" y="4952880"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1611,9 +1601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1627,7 +1617,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4448160" y="4952880"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1648,9 +1638,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1664,7 +1654,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4448160" y="3489840"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1685,9 +1675,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1701,7 +1691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4448160" y="4952880"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1722,9 +1712,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1738,7 +1728,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4448160" y="3855600"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1759,9 +1749,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1775,7 +1765,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4448160" y="2026800"/>
-          <a:ext cx="9000" cy="9000"/>
+          <a:ext cx="8640" cy="8640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1797,8 +1787,8 @@
   </sheetPr>
   <dimension ref="A3:I154"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A117" activeCellId="0" sqref="117:117"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3736,8 +3726,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B80" s="3" t="n">
@@ -3749,7 +3739,7 @@
       <c r="D80" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F80" s="14" t="s">
+      <c r="F80" s="5" t="s">
         <v>109</v>
       </c>
       <c r="G80" s="3" t="n">
@@ -4693,7 +4683,7 @@
       <c r="I117" s="8"/>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B118" s="3" t="n">
@@ -4705,7 +4695,7 @@
       <c r="D118" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F118" s="15" t="s">
+      <c r="F118" s="14" t="s">
         <v>165</v>
       </c>
       <c r="G118" s="3" t="n">
@@ -4719,7 +4709,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B119" s="3" t="n">
@@ -4731,7 +4721,7 @@
       <c r="D119" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F119" s="15" t="s">
+      <c r="F119" s="14" t="s">
         <v>167</v>
       </c>
       <c r="G119" s="3" t="n">
@@ -5678,47 +5668,47 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="117:117 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="19" t="n">
+      <c r="B2" s="18" t="n">
         <v>41452</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>228</v>
       </c>
     </row>
